--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>17704812</t>
+  </si>
+  <si>
+    <t>118451</t>
+  </si>
+  <si>
+    <t>1008617738</t>
+  </si>
+  <si>
+    <t>17705210</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>1008617741</t>
+  </si>
+  <si>
+    <t>1008617742</t>
+  </si>
+  <si>
+    <t>17705211</t>
+  </si>
+  <si>
+    <t>1008617743</t>
+  </si>
+  <si>
+    <t>17705212</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>1008617765</t>
+  </si>
+  <si>
+    <t>17705235</t>
   </si>
 </sst>
 </file>
@@ -146,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -320,6 +356,76 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>TC</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>17705235</t>
+  </si>
+  <si>
+    <t>1008617897</t>
+  </si>
+  <si>
+    <t>17706585</t>
+  </si>
+  <si>
+    <t>1008617902</t>
+  </si>
+  <si>
+    <t>17706589</t>
   </si>
 </sst>
 </file>
@@ -182,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -426,6 +438,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>TC</t>
   </si>
@@ -150,6 +150,273 @@
   </si>
   <si>
     <t>17706589</t>
+  </si>
+  <si>
+    <t>1008619408</t>
+  </si>
+  <si>
+    <t>17713277</t>
+  </si>
+  <si>
+    <t>1008784097</t>
+  </si>
+  <si>
+    <t>17866684</t>
+  </si>
+  <si>
+    <t>6063</t>
+  </si>
+  <si>
+    <t>1008784100</t>
+  </si>
+  <si>
+    <t>17866572</t>
+  </si>
+  <si>
+    <t>1008784104</t>
+  </si>
+  <si>
+    <t>17866587</t>
+  </si>
+  <si>
+    <t>1008784105</t>
+  </si>
+  <si>
+    <t>17866588</t>
+  </si>
+  <si>
+    <t>1008784107</t>
+  </si>
+  <si>
+    <t>17866591</t>
+  </si>
+  <si>
+    <t>1008784110</t>
+  </si>
+  <si>
+    <t>17866594</t>
+  </si>
+  <si>
+    <t>1008784113</t>
+  </si>
+  <si>
+    <t>17866597</t>
+  </si>
+  <si>
+    <t>1008784114</t>
+  </si>
+  <si>
+    <t>17866598</t>
+  </si>
+  <si>
+    <t>1008784117</t>
+  </si>
+  <si>
+    <t>17866601</t>
+  </si>
+  <si>
+    <t>1008784120</t>
+  </si>
+  <si>
+    <t>17866604</t>
+  </si>
+  <si>
+    <t>1008784121</t>
+  </si>
+  <si>
+    <t>17866605</t>
+  </si>
+  <si>
+    <t>1008784124</t>
+  </si>
+  <si>
+    <t>17866608</t>
+  </si>
+  <si>
+    <t>1008784125</t>
+  </si>
+  <si>
+    <t>17866609</t>
+  </si>
+  <si>
+    <t>1008784128</t>
+  </si>
+  <si>
+    <t>17866612</t>
+  </si>
+  <si>
+    <t>1008784129</t>
+  </si>
+  <si>
+    <t>17866613</t>
+  </si>
+  <si>
+    <t>1008784131</t>
+  </si>
+  <si>
+    <t>17866615</t>
+  </si>
+  <si>
+    <t>1008784132</t>
+  </si>
+  <si>
+    <t>17866616</t>
+  </si>
+  <si>
+    <t>1008784135</t>
+  </si>
+  <si>
+    <t>17866619</t>
+  </si>
+  <si>
+    <t>1008784138</t>
+  </si>
+  <si>
+    <t>17866622</t>
+  </si>
+  <si>
+    <t>1008784139</t>
+  </si>
+  <si>
+    <t>17866623</t>
+  </si>
+  <si>
+    <t>1008784142</t>
+  </si>
+  <si>
+    <t>17866626</t>
+  </si>
+  <si>
+    <t>1008784143</t>
+  </si>
+  <si>
+    <t>17866627</t>
+  </si>
+  <si>
+    <t>1008784145</t>
+  </si>
+  <si>
+    <t>17866630</t>
+  </si>
+  <si>
+    <t>1008784146</t>
+  </si>
+  <si>
+    <t>17866632</t>
+  </si>
+  <si>
+    <t>1008784149</t>
+  </si>
+  <si>
+    <t>17866636</t>
+  </si>
+  <si>
+    <t>1008784151</t>
+  </si>
+  <si>
+    <t>17866639</t>
+  </si>
+  <si>
+    <t>1008784154</t>
+  </si>
+  <si>
+    <t>17866642</t>
+  </si>
+  <si>
+    <t>1008784155</t>
+  </si>
+  <si>
+    <t>17866643</t>
+  </si>
+  <si>
+    <t>1008784157</t>
+  </si>
+  <si>
+    <t>17866645</t>
+  </si>
+  <si>
+    <t>1008784158</t>
+  </si>
+  <si>
+    <t>17866646</t>
+  </si>
+  <si>
+    <t>1008784160</t>
+  </si>
+  <si>
+    <t>17866649</t>
+  </si>
+  <si>
+    <t>1008784163</t>
+  </si>
+  <si>
+    <t>17866653</t>
+  </si>
+  <si>
+    <t>1008784164</t>
+  </si>
+  <si>
+    <t>17866654</t>
+  </si>
+  <si>
+    <t>1008784167</t>
+  </si>
+  <si>
+    <t>17866657</t>
+  </si>
+  <si>
+    <t>1008784168</t>
+  </si>
+  <si>
+    <t>17866658</t>
+  </si>
+  <si>
+    <t>1008784171</t>
+  </si>
+  <si>
+    <t>17866661</t>
+  </si>
+  <si>
+    <t>1008784172</t>
+  </si>
+  <si>
+    <t>17866662</t>
+  </si>
+  <si>
+    <t>1008784175</t>
+  </si>
+  <si>
+    <t>17866666</t>
+  </si>
+  <si>
+    <t>1008784178</t>
+  </si>
+  <si>
+    <t>17866669</t>
+  </si>
+  <si>
+    <t>1008784180</t>
+  </si>
+  <si>
+    <t>17866590</t>
+  </si>
+  <si>
+    <t>1008784184</t>
+  </si>
+  <si>
+    <t>17866633</t>
+  </si>
+  <si>
+    <t>1008784187</t>
+  </si>
+  <si>
+    <t>17866650</t>
+  </si>
+  <si>
+    <t>1008784188</t>
+  </si>
+  <si>
+    <t>17866665</t>
   </si>
 </sst>
 </file>
@@ -194,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,6 +733,622 @@
         <v>25</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
   <si>
     <t>TC</t>
   </si>
@@ -417,6 +417,42 @@
   </si>
   <si>
     <t>17866665</t>
+  </si>
+  <si>
+    <t>1008784191</t>
+  </si>
+  <si>
+    <t>17866687</t>
+  </si>
+  <si>
+    <t>1008784192</t>
+  </si>
+  <si>
+    <t>17866688</t>
+  </si>
+  <si>
+    <t>1008784194</t>
+  </si>
+  <si>
+    <t>17866691</t>
+  </si>
+  <si>
+    <t>1008784197</t>
+  </si>
+  <si>
+    <t>17866694</t>
+  </si>
+  <si>
+    <t>1008784198</t>
+  </si>
+  <si>
+    <t>17866695</t>
+  </si>
+  <si>
+    <t>1008784201</t>
+  </si>
+  <si>
+    <t>17866698</t>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1349,6 +1385,90 @@
         <v>50</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="150">
   <si>
     <t>TC</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>17866698</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>1008784222</t>
+  </si>
+  <si>
+    <t>17866727</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1469,6 +1478,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>TC</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>17866727</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>1008784273</t>
+  </si>
+  <si>
+    <t>17866764</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1492,6 +1501,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/LCY Saving Accounts.xlsx
+++ b/Data/LCY Saving Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="233">
   <si>
     <t>TC</t>
   </si>
@@ -471,6 +471,246 @@
   </si>
   <si>
     <t>17866764</t>
+  </si>
+  <si>
+    <t>1008784314</t>
+  </si>
+  <si>
+    <t>17898803</t>
+  </si>
+  <si>
+    <t>1008784315</t>
+  </si>
+  <si>
+    <t>17898804</t>
+  </si>
+  <si>
+    <t>1008784336</t>
+  </si>
+  <si>
+    <t>17898816</t>
+  </si>
+  <si>
+    <t>1008784337</t>
+  </si>
+  <si>
+    <t>17898817</t>
+  </si>
+  <si>
+    <t>1008784351</t>
+  </si>
+  <si>
+    <t>17898848</t>
+  </si>
+  <si>
+    <t>1008784360</t>
+  </si>
+  <si>
+    <t>17898858</t>
+  </si>
+  <si>
+    <t>1008784361</t>
+  </si>
+  <si>
+    <t>17898859</t>
+  </si>
+  <si>
+    <t>1008784370</t>
+  </si>
+  <si>
+    <t>17898868</t>
+  </si>
+  <si>
+    <t>1008784378</t>
+  </si>
+  <si>
+    <t>17898879</t>
+  </si>
+  <si>
+    <t>1008784379</t>
+  </si>
+  <si>
+    <t>17898881</t>
+  </si>
+  <si>
+    <t>1008784387</t>
+  </si>
+  <si>
+    <t>17898893</t>
+  </si>
+  <si>
+    <t>1008784388</t>
+  </si>
+  <si>
+    <t>17898894</t>
+  </si>
+  <si>
+    <t>1008784395</t>
+  </si>
+  <si>
+    <t>17898908</t>
+  </si>
+  <si>
+    <t>1008784396</t>
+  </si>
+  <si>
+    <t>17898909</t>
+  </si>
+  <si>
+    <t>1008784400</t>
+  </si>
+  <si>
+    <t>17898936</t>
+  </si>
+  <si>
+    <t>1008784405</t>
+  </si>
+  <si>
+    <t>17898940</t>
+  </si>
+  <si>
+    <t>1008784408</t>
+  </si>
+  <si>
+    <t>17898948</t>
+  </si>
+  <si>
+    <t>1008784411</t>
+  </si>
+  <si>
+    <t>17898951</t>
+  </si>
+  <si>
+    <t>1008784415</t>
+  </si>
+  <si>
+    <t>17898954</t>
+  </si>
+  <si>
+    <t>1008784419</t>
+  </si>
+  <si>
+    <t>17898967</t>
+  </si>
+  <si>
+    <t>1008784422</t>
+  </si>
+  <si>
+    <t>17898970</t>
+  </si>
+  <si>
+    <t>1008784425</t>
+  </si>
+  <si>
+    <t>17898992</t>
+  </si>
+  <si>
+    <t>1008784428</t>
+  </si>
+  <si>
+    <t>17898996</t>
+  </si>
+  <si>
+    <t>1008784430</t>
+  </si>
+  <si>
+    <t>17899005</t>
+  </si>
+  <si>
+    <t>1008784433</t>
+  </si>
+  <si>
+    <t>17899008</t>
+  </si>
+  <si>
+    <t>1008784434</t>
+  </si>
+  <si>
+    <t>17899013</t>
+  </si>
+  <si>
+    <t>1008784437</t>
+  </si>
+  <si>
+    <t>17899016</t>
+  </si>
+  <si>
+    <t>1008784444</t>
+  </si>
+  <si>
+    <t>17899025</t>
+  </si>
+  <si>
+    <t>1008784447</t>
+  </si>
+  <si>
+    <t>17899028</t>
+  </si>
+  <si>
+    <t>1008784450</t>
+  </si>
+  <si>
+    <t>17899032</t>
+  </si>
+  <si>
+    <t>1008784453</t>
+  </si>
+  <si>
+    <t>17899035</t>
+  </si>
+  <si>
+    <t>1008784455</t>
+  </si>
+  <si>
+    <t>17899037</t>
+  </si>
+  <si>
+    <t>1008784459</t>
+  </si>
+  <si>
+    <t>17899043</t>
+  </si>
+  <si>
+    <t>1008784462</t>
+  </si>
+  <si>
+    <t>17899046</t>
+  </si>
+  <si>
+    <t>1008784468</t>
+  </si>
+  <si>
+    <t>17899055</t>
+  </si>
+  <si>
+    <t>1008784469</t>
+  </si>
+  <si>
+    <t>17899058</t>
+  </si>
+  <si>
+    <t>1008784472</t>
+  </si>
+  <si>
+    <t>17899061</t>
+  </si>
+  <si>
+    <t>1008784477</t>
+  </si>
+  <si>
+    <t>17899067</t>
+  </si>
+  <si>
+    <t>1008784479</t>
+  </si>
+  <si>
+    <t>17899070</t>
+  </si>
+  <si>
+    <t>1008784482</t>
+  </si>
+  <si>
+    <t>17899073</t>
   </si>
 </sst>
 </file>
@@ -515,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1515,6 +1755,566 @@
         <v>39</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
